--- a/biology/Microbiologie/Botrydiaceae/Botrydiaceae.xlsx
+++ b/biology/Microbiologie/Botrydiaceae/Botrydiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Botrydiaceae sont une famille d'algues de la classe des Xanthophyceae ou Tribophyceae (algues jaunes) comprenant 13 espèces dans trois genres[1]. C'est la seule famille de l'ordre des Botrydiales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Botrydiaceae sont une famille d'algues de la classe des Xanthophyceae ou Tribophyceae (algues jaunes) comprenant 13 espèces dans trois genres. C'est la seule famille de l'ordre des Botrydiales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Botrydium, dérivé du grec βοτρυ / botry, «  petite grappe » ou βοτρυσ / botrys,  « grappe de raisin »[2], en raison de la ressemblance de ces algues avec des grains de raisin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Botrydium, dérivé du grec βοτρυ / botry, «  petite grappe » ou βοτρυσ / botrys,  « grappe de raisin », en raison de la ressemblance de ces algues avec des grains de raisin.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (16 août 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (16 août 2021) :
 Botrydium Wallroth, 1815
-Selon NCBI  (16 août 2021)[5] :
+Selon NCBI  (16 août 2021) :
 Asterosiphon
 Botrydium
-Selon World Register of Marine Species                               (16 août 2021)[6] :
+Selon World Register of Marine Species                               (16 août 2021) :
 Asterosiphon P.(J.L.) Dangeard, 1940
 Botrydium Wallroth, 1815
 Polychloris Borzì, 1892'</t>
